--- a/all_planchette/23.11.2023.xlsx
+++ b/all_planchette/23.11.2023.xlsx
@@ -15,14 +15,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="FTulQ9niOvAc3o1a6P4htnlmVEZtmGKB2BdbMufxRcA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="UWC/LSExfuHoE3aTBe2FxfFshUUozkE6PkFlGMgpal0="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="198">
   <si>
     <t>Пара 1</t>
   </si>
@@ -123,442 +123,442 @@
     <t>Рожченко Т.В.</t>
   </si>
   <si>
+    <t>СА-46</t>
+  </si>
+  <si>
+    <t>Панасевич Д.Г.</t>
+  </si>
+  <si>
+    <t>ИС-16</t>
+  </si>
+  <si>
+    <t>СА-13</t>
+  </si>
+  <si>
+    <t>Упорова Л.В.</t>
+  </si>
+  <si>
+    <t>209а</t>
+  </si>
+  <si>
+    <t>СК-41</t>
+  </si>
+  <si>
+    <t>Згонникова Т.Ф.</t>
+  </si>
+  <si>
+    <t>СА-15</t>
+  </si>
+  <si>
+    <t>Марышева О.В.</t>
+  </si>
+  <si>
+    <t>СА-16</t>
+  </si>
+  <si>
+    <t>Небратенко Л.В.</t>
+  </si>
+  <si>
+    <t>210а</t>
+  </si>
+  <si>
+    <t>ИС-41</t>
+  </si>
+  <si>
+    <t>Каламбет В.Б.</t>
+  </si>
+  <si>
+    <t>ПИ-42</t>
+  </si>
+  <si>
+    <t>Сулавко А.С.</t>
+  </si>
+  <si>
+    <t>ИС-11</t>
+  </si>
+  <si>
+    <t>Рыбальченко Т.Б.</t>
+  </si>
+  <si>
+    <t>СА-22</t>
+  </si>
+  <si>
+    <t>Мельникова М.В.</t>
+  </si>
+  <si>
+    <t>ПОКС-47b</t>
+  </si>
+  <si>
+    <t>Бельчич Д.С.</t>
+  </si>
+  <si>
+    <t>ИС-12</t>
+  </si>
+  <si>
+    <t>Хайлова Л.В.</t>
+  </si>
+  <si>
+    <t>ИС-15</t>
+  </si>
+  <si>
+    <t>216а</t>
+  </si>
+  <si>
+    <t>ИКС-32</t>
+  </si>
+  <si>
+    <t>Якубенко С.Я.</t>
+  </si>
+  <si>
+    <t>ПОКС-44w</t>
+  </si>
+  <si>
+    <t>Пивнева М.А.</t>
+  </si>
+  <si>
+    <t>СА-17</t>
+  </si>
+  <si>
+    <t>Чепурная Е.Г.</t>
+  </si>
+  <si>
+    <t>с/з1</t>
+  </si>
+  <si>
+    <t>ИБА-32</t>
+  </si>
+  <si>
+    <t>Кротенко Е.М.</t>
+  </si>
+  <si>
+    <t>с/з2</t>
+  </si>
+  <si>
+    <t>с/з3</t>
+  </si>
+  <si>
+    <t>с/з4</t>
+  </si>
+  <si>
+    <t>с/з5</t>
+  </si>
+  <si>
+    <t>Ужегова Е.А.</t>
+  </si>
+  <si>
+    <t>с/з6</t>
+  </si>
+  <si>
+    <t>СА-14</t>
+  </si>
+  <si>
+    <t>Гуденко О.Н.</t>
+  </si>
+  <si>
+    <t>с/з7</t>
+  </si>
+  <si>
+    <t>с/з8</t>
+  </si>
+  <si>
+    <t>с/з9</t>
+  </si>
+  <si>
+    <t>315а</t>
+  </si>
+  <si>
+    <t>Общ1-3</t>
+  </si>
+  <si>
+    <t>СА-38</t>
+  </si>
+  <si>
+    <t>Згонников Е.Ф.</t>
+  </si>
+  <si>
+    <t>Общ1-1</t>
+  </si>
+  <si>
+    <t>СА-31</t>
+  </si>
+  <si>
+    <t>Голенко Д.А.</t>
+  </si>
+  <si>
+    <t>Общ1</t>
+  </si>
+  <si>
+    <t>СА-33</t>
+  </si>
+  <si>
+    <t>Общ1-2</t>
+  </si>
+  <si>
+    <t>Пара 2</t>
+  </si>
+  <si>
+    <t>82.0% заполненость корпус Тургеневский</t>
+  </si>
+  <si>
+    <t>ИС-24</t>
+  </si>
+  <si>
+    <t>Барна Н.В.</t>
+  </si>
+  <si>
+    <t>СА-44</t>
+  </si>
+  <si>
+    <t>Куракова Г.В.</t>
+  </si>
+  <si>
+    <t>СА-32</t>
+  </si>
+  <si>
+    <t>Рязанова Л.Е.</t>
+  </si>
+  <si>
+    <t>ПОКС-45w</t>
+  </si>
+  <si>
+    <t>Рыбальченко Т.</t>
+  </si>
+  <si>
+    <t>Сулавко С.Н.</t>
+  </si>
+  <si>
+    <t>ИКС-23</t>
+  </si>
+  <si>
+    <t>Студенникова Д.А.</t>
+  </si>
+  <si>
+    <t>ПИ-41</t>
+  </si>
+  <si>
+    <t>Нещадим К.С.</t>
+  </si>
+  <si>
+    <t>ПИ-43</t>
+  </si>
+  <si>
+    <t>ПОКС-42b</t>
+  </si>
+  <si>
+    <t>Петрова М.Е.</t>
+  </si>
+  <si>
+    <t>Видинеева Е.А.</t>
+  </si>
+  <si>
+    <t>ИБА-22</t>
+  </si>
+  <si>
+    <t>Растороцкий В.В.</t>
+  </si>
+  <si>
+    <t>МТ-42</t>
+  </si>
+  <si>
+    <t>Корбан С.Н.</t>
+  </si>
+  <si>
+    <t>Гузов А.В.</t>
+  </si>
+  <si>
+    <t>СА-34</t>
+  </si>
+  <si>
+    <t>Пузыревский И.А.</t>
+  </si>
+  <si>
+    <t>Пара 3</t>
+  </si>
+  <si>
+    <t>90.0% заполненость корпус Тургеневский</t>
+  </si>
+  <si>
+    <t>Лебедева М.В.</t>
+  </si>
+  <si>
+    <t>Джалагония М.Ш.</t>
+  </si>
+  <si>
+    <t>ИС-28</t>
+  </si>
+  <si>
+    <t>Арутюнян М.М.</t>
+  </si>
+  <si>
+    <t>ИКС-22</t>
+  </si>
+  <si>
+    <t>СА-27</t>
+  </si>
+  <si>
+    <t>Войнова Е.С.</t>
+  </si>
+  <si>
+    <t>МТ-43</t>
+  </si>
+  <si>
+    <t>ИС-25</t>
+  </si>
+  <si>
+    <t>Дедова А.Д.</t>
+  </si>
+  <si>
+    <t>Алябышева С.Н.</t>
+  </si>
+  <si>
+    <t>Демиденко А.В.</t>
+  </si>
+  <si>
+    <t>СА-42</t>
+  </si>
+  <si>
+    <t>ИС-33</t>
+  </si>
+  <si>
+    <t>Турянский И.П.</t>
+  </si>
+  <si>
+    <t>Коханова Л.Н.</t>
+  </si>
+  <si>
+    <t>Швачич Д.С.</t>
+  </si>
+  <si>
+    <t>ИС-38</t>
+  </si>
+  <si>
+    <t>Кошкина А.А.</t>
+  </si>
+  <si>
+    <t>Пара 4</t>
+  </si>
+  <si>
+    <t>86.0% заполненость корпус Тургеневский</t>
+  </si>
+  <si>
+    <t>Путинцева Ю.М.</t>
+  </si>
+  <si>
+    <t>СА-43</t>
+  </si>
+  <si>
+    <t>Бурлуцкая А.В.</t>
+  </si>
+  <si>
+    <t>СА-21</t>
+  </si>
+  <si>
+    <t>ИС-36</t>
+  </si>
+  <si>
+    <t>СА-25</t>
+  </si>
+  <si>
+    <t>ИС-26</t>
+  </si>
+  <si>
+    <t>ИС-31</t>
+  </si>
+  <si>
+    <t>ИБТ-33</t>
+  </si>
+  <si>
+    <t>Байбекова И.Г.</t>
+  </si>
+  <si>
+    <t>ИБА-33</t>
+  </si>
+  <si>
+    <t>ИБТ-31</t>
+  </si>
+  <si>
+    <t>Ермолина Л.В.</t>
+  </si>
+  <si>
+    <t>ИБА-34</t>
+  </si>
+  <si>
+    <t>ИС-22</t>
+  </si>
+  <si>
+    <t>Болховитина О.И.</t>
+  </si>
+  <si>
+    <t>Жарехина И.М.</t>
+  </si>
+  <si>
+    <t>Столярова Ю.Б.</t>
+  </si>
+  <si>
+    <t>СА-23</t>
+  </si>
+  <si>
+    <t>СА-24</t>
+  </si>
+  <si>
+    <t>Романенко Е.Л.</t>
+  </si>
+  <si>
+    <t>ИБА-31</t>
+  </si>
+  <si>
+    <t>ИБТ-23</t>
+  </si>
+  <si>
+    <t>Скороходов Г.Ю.</t>
+  </si>
+  <si>
+    <t>Бороненкова С.Е.</t>
+  </si>
+  <si>
+    <t>ИС-32</t>
+  </si>
+  <si>
+    <t>ИС-34</t>
+  </si>
+  <si>
+    <t>ИКС-21</t>
+  </si>
+  <si>
+    <t>ИС-23</t>
+  </si>
+  <si>
+    <t>Бурда Е.Г.</t>
+  </si>
+  <si>
+    <t>Дозорова Е.В.</t>
+  </si>
+  <si>
+    <t>Пара 5</t>
+  </si>
+  <si>
+    <t>РТ-31</t>
+  </si>
+  <si>
+    <t>Пустоветова С.Ю.</t>
+  </si>
+  <si>
+    <t>Иванов В.С.</t>
+  </si>
+  <si>
+    <t>МТ-41</t>
+  </si>
+  <si>
+    <t>КМ-32</t>
+  </si>
+  <si>
+    <t>СА-45</t>
+  </si>
+  <si>
+    <t>Попова А.Ю.</t>
+  </si>
+  <si>
     <t>СА-41</t>
-  </si>
-  <si>
-    <t>Попова А.Ю.</t>
-  </si>
-  <si>
-    <t>СА-13</t>
-  </si>
-  <si>
-    <t>Упорова Л.В.</t>
-  </si>
-  <si>
-    <t>СК-41</t>
-  </si>
-  <si>
-    <t>Згонникова Т.Ф.</t>
-  </si>
-  <si>
-    <t>209а</t>
-  </si>
-  <si>
-    <t>СА-16</t>
-  </si>
-  <si>
-    <t>Небратенко Л.В.</t>
-  </si>
-  <si>
-    <t>СА-15</t>
-  </si>
-  <si>
-    <t>Марышева О.В.</t>
-  </si>
-  <si>
-    <t>ИС-41</t>
-  </si>
-  <si>
-    <t>Каламбет В.Б.</t>
-  </si>
-  <si>
-    <t>210а</t>
-  </si>
-  <si>
-    <t>ПИ-42</t>
-  </si>
-  <si>
-    <t>Сулавко А.С.</t>
-  </si>
-  <si>
-    <t>СА-22</t>
-  </si>
-  <si>
-    <t>Мельникова М.В.</t>
-  </si>
-  <si>
-    <t>ИС-11</t>
-  </si>
-  <si>
-    <t>Рыбальченко Т.Б.</t>
-  </si>
-  <si>
-    <t>ПОКС-47b</t>
-  </si>
-  <si>
-    <t>Бельчич Д.С.</t>
-  </si>
-  <si>
-    <t>ИС-15</t>
-  </si>
-  <si>
-    <t>ИС-12</t>
-  </si>
-  <si>
-    <t>Хайлова Л.В.</t>
-  </si>
-  <si>
-    <t>ПОКС-44w</t>
-  </si>
-  <si>
-    <t>Пивнева М.А.</t>
-  </si>
-  <si>
-    <t>216а</t>
-  </si>
-  <si>
-    <t>ИКС-32</t>
-  </si>
-  <si>
-    <t>Якубенко С.Я.</t>
-  </si>
-  <si>
-    <t>с/з1</t>
-  </si>
-  <si>
-    <t>СА-17</t>
-  </si>
-  <si>
-    <t>Чепурная Е.Г.</t>
-  </si>
-  <si>
-    <t>с/з2</t>
-  </si>
-  <si>
-    <t>СА-46</t>
-  </si>
-  <si>
-    <t>Панасевич Д.Г.</t>
-  </si>
-  <si>
-    <t>с/з3</t>
-  </si>
-  <si>
-    <t>с/з4</t>
-  </si>
-  <si>
-    <t>ИС-16</t>
-  </si>
-  <si>
-    <t>Грицай О.П.</t>
-  </si>
-  <si>
-    <t>с/з5</t>
-  </si>
-  <si>
-    <t>с/з6</t>
-  </si>
-  <si>
-    <t>Ужегова Е.А.</t>
-  </si>
-  <si>
-    <t>с/з7</t>
-  </si>
-  <si>
-    <t>СА-14</t>
-  </si>
-  <si>
-    <t>Гуденко О.Н.</t>
-  </si>
-  <si>
-    <t>с/з8</t>
-  </si>
-  <si>
-    <t>с/з9</t>
-  </si>
-  <si>
-    <t>Общ1-3</t>
-  </si>
-  <si>
-    <t>СА-38</t>
-  </si>
-  <si>
-    <t>Згонников Е.Ф.</t>
-  </si>
-  <si>
-    <t>315а</t>
-  </si>
-  <si>
-    <t>Общ1-1</t>
-  </si>
-  <si>
-    <t>СА-31</t>
-  </si>
-  <si>
-    <t>Голенко Д.А.</t>
-  </si>
-  <si>
-    <t>Общ1</t>
-  </si>
-  <si>
-    <t>СА-33</t>
-  </si>
-  <si>
-    <t>Общ1-2</t>
-  </si>
-  <si>
-    <t>Пара 2</t>
-  </si>
-  <si>
-    <t>82.0% заполненость корпус Тургеневский</t>
-  </si>
-  <si>
-    <t>ИС-24</t>
-  </si>
-  <si>
-    <t>Нещадим К.С.</t>
-  </si>
-  <si>
-    <t>СА-44</t>
-  </si>
-  <si>
-    <t>Куракова Г.В.</t>
-  </si>
-  <si>
-    <t>Барна Н.В.</t>
-  </si>
-  <si>
-    <t>СА-32</t>
-  </si>
-  <si>
-    <t>Рязанова Л.Е.</t>
-  </si>
-  <si>
-    <t>ПОКС-45w</t>
-  </si>
-  <si>
-    <t>Рыбальченко Т.</t>
-  </si>
-  <si>
-    <t>Сулавко С.Н.</t>
-  </si>
-  <si>
-    <t>ИКС-23</t>
-  </si>
-  <si>
-    <t>Студенникова Д.А.</t>
-  </si>
-  <si>
-    <t>ПИ-41</t>
-  </si>
-  <si>
-    <t>ПИ-43</t>
-  </si>
-  <si>
-    <t>ПОКС-42b</t>
-  </si>
-  <si>
-    <t>Петрова М.Е.</t>
-  </si>
-  <si>
-    <t>Видинеева Е.А.</t>
-  </si>
-  <si>
-    <t>ИБА-22</t>
-  </si>
-  <si>
-    <t>Растороцкий В.В.</t>
-  </si>
-  <si>
-    <t>МТ-42</t>
-  </si>
-  <si>
-    <t>Корбан С.Н.</t>
-  </si>
-  <si>
-    <t>Гузов А.В.</t>
-  </si>
-  <si>
-    <t>СА-34</t>
-  </si>
-  <si>
-    <t>Пузыревский И.А.</t>
-  </si>
-  <si>
-    <t>Пара 3</t>
-  </si>
-  <si>
-    <t>90.0% заполненость корпус Тургеневский</t>
-  </si>
-  <si>
-    <t>Лебедева М.В.</t>
-  </si>
-  <si>
-    <t>Джалагония М.Ш.</t>
-  </si>
-  <si>
-    <t>ИС-28</t>
-  </si>
-  <si>
-    <t>Арутюнян М.М.</t>
-  </si>
-  <si>
-    <t>ИКС-22</t>
-  </si>
-  <si>
-    <t>СА-27</t>
-  </si>
-  <si>
-    <t>Войнова Е.С.</t>
-  </si>
-  <si>
-    <t>МТ-43</t>
-  </si>
-  <si>
-    <t>ИС-25</t>
-  </si>
-  <si>
-    <t>Дедова А.Д.</t>
-  </si>
-  <si>
-    <t>Алябышева С.Н.</t>
-  </si>
-  <si>
-    <t>Демиденко А.В.</t>
-  </si>
-  <si>
-    <t>СА-42</t>
-  </si>
-  <si>
-    <t>ИС-33</t>
-  </si>
-  <si>
-    <t>Турянский И.П.</t>
-  </si>
-  <si>
-    <t>Коханова Л.Н.</t>
-  </si>
-  <si>
-    <t>Швачич Д.С.</t>
-  </si>
-  <si>
-    <t>ИС-38</t>
-  </si>
-  <si>
-    <t>Кошкина А.А.</t>
-  </si>
-  <si>
-    <t>Пара 4</t>
-  </si>
-  <si>
-    <t>86.0% заполненость корпус Тургеневский</t>
-  </si>
-  <si>
-    <t>Путинцева Ю.М.</t>
-  </si>
-  <si>
-    <t>СА-43</t>
-  </si>
-  <si>
-    <t>Бурлуцкая А.В.</t>
-  </si>
-  <si>
-    <t>СА-21</t>
-  </si>
-  <si>
-    <t>ИС-36</t>
-  </si>
-  <si>
-    <t>СА-25</t>
-  </si>
-  <si>
-    <t>ИС-26</t>
-  </si>
-  <si>
-    <t>ИС-31</t>
-  </si>
-  <si>
-    <t>ИБТ-33</t>
-  </si>
-  <si>
-    <t>Байбекова И.Г.</t>
-  </si>
-  <si>
-    <t>ИБА-33</t>
-  </si>
-  <si>
-    <t>ИБТ-31</t>
-  </si>
-  <si>
-    <t>Ермолина Л.В.</t>
-  </si>
-  <si>
-    <t>ИБА-34</t>
-  </si>
-  <si>
-    <t>Столярова Ю.Б.</t>
-  </si>
-  <si>
-    <t>СА-45</t>
-  </si>
-  <si>
-    <t>ИС-22</t>
-  </si>
-  <si>
-    <t>Болховитина О.И.</t>
-  </si>
-  <si>
-    <t>Жарехина И.М.</t>
-  </si>
-  <si>
-    <t>СА-23</t>
-  </si>
-  <si>
-    <t>СА-24</t>
-  </si>
-  <si>
-    <t>Романенко Е.Л.</t>
-  </si>
-  <si>
-    <t>ИБА-31</t>
-  </si>
-  <si>
-    <t>Кротенко Е.М.</t>
-  </si>
-  <si>
-    <t>ИБТ-23</t>
-  </si>
-  <si>
-    <t>Скороходов Г.Ю.</t>
-  </si>
-  <si>
-    <t>Бороненкова С.Е.</t>
-  </si>
-  <si>
-    <t>ИС-32</t>
-  </si>
-  <si>
-    <t>ИС-34</t>
-  </si>
-  <si>
-    <t>ИКС-21</t>
-  </si>
-  <si>
-    <t>ИС-23</t>
-  </si>
-  <si>
-    <t>Бурда Е.Г.</t>
-  </si>
-  <si>
-    <t>Дозорова Е.В.</t>
-  </si>
-  <si>
-    <t>Пара 5</t>
-  </si>
-  <si>
-    <t>РТ-31</t>
-  </si>
-  <si>
-    <t>Пустоветова С.Ю.</t>
-  </si>
-  <si>
-    <t>Иванов В.С.</t>
-  </si>
-  <si>
-    <t>МТ-41</t>
-  </si>
-  <si>
-    <t>КМ-32</t>
   </si>
   <si>
     <t>ИКС-33</t>
@@ -716,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -753,9 +753,14 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -794,6 +799,16 @@
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1283,13 +1298,13 @@
         <v>34</v>
       </c>
       <c r="D15" s="2">
-        <v>410.0</v>
+        <v>408.0</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
+      <c r="F15" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -1303,29 +1318,29 @@
         <v>14</v>
       </c>
       <c r="D16" s="2">
-        <v>411.0</v>
-      </c>
-      <c r="E16" s="8" t="s">
+        <v>410.0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="2">
-        <v>412.0</v>
-      </c>
-      <c r="E17" s="7" t="s">
+        <v>411.0</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -1333,35 +1348,35 @@
         <v>210.0</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="2">
+        <v>412.0</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="2">
-        <v>414.0</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="2">
-        <v>415.0</v>
+        <v>414.0</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -1371,13 +1386,13 @@
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="2">
-        <v>416.0</v>
-      </c>
-      <c r="E20" s="2" t="s">
+        <v>415.0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -1385,19 +1400,19 @@
         <v>213.0</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="2">
+        <v>416.0</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="2">
-        <v>418.0</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -1407,13 +1422,13 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="2">
-        <v>420.0</v>
-      </c>
-      <c r="E22" s="8" t="s">
+        <v>418.0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -1427,30 +1442,34 @@
         <v>57</v>
       </c>
       <c r="D23" s="2">
-        <v>422.0</v>
-      </c>
-      <c r="E23" s="2" t="s">
+        <v>420.0</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>59</v>
+      <c r="F23" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="2">
+        <v>422.0</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2">
@@ -1465,24 +1484,24 @@
       <c r="D25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="2">
         <v>220.0</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2">
@@ -1493,24 +1512,18 @@
       <c r="D27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
         <v>305.0</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="D28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2">
@@ -1519,7 +1532,7 @@
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -1532,10 +1545,10 @@
         <v>10</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -1545,13 +1558,13 @@
         <v>310.0</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -1563,10 +1576,10 @@
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2">
@@ -1575,29 +1588,25 @@
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>83</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -1605,13 +1614,13 @@
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
@@ -1619,20 +1628,34 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="F36" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1664,14 +1687,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="17">
+      <c r="A1" s="20">
         <v>45253.0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1681,8 +1704,8 @@
       <c r="A2" s="2">
         <v>5.0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="2">
         <v>316.0</v>
       </c>
@@ -1735,7 +1758,7 @@
         <v>322.0</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>9</v>
@@ -1829,20 +1852,20 @@
       <c r="A11" s="2">
         <v>114.0</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>94</v>
+      <c r="B11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="D11" s="2">
         <v>404.0</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -1891,7 +1914,7 @@
         <v>408.0</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>32</v>
@@ -1914,12 +1937,12 @@
         <v>25</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1927,46 +1950,40 @@
         <v>411.0</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="2">
         <v>210.0</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="D17" s="2">
         <v>412.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="2">
         <v>414.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -1974,19 +1991,19 @@
         <v>212.0</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2">
         <v>414.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -1997,16 +2014,16 @@
         <v>56</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D20" s="2">
         <v>415.0</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -2014,50 +2031,50 @@
         <v>214.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D21" s="2">
         <v>415.0</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="2">
         <v>216.0</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>57</v>
+      <c r="B22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="D22" s="2">
         <v>415.0</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="D23" s="2">
         <v>416.0</v>
@@ -2066,7 +2083,7 @@
         <v>31</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -2074,7 +2091,7 @@
         <v>217.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>65</v>
@@ -2083,30 +2100,30 @@
         <v>418.0</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2">
         <v>220.0</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="2">
         <v>420.0</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -2114,19 +2131,19 @@
         <v>303.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="2">
         <v>422.0</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -2136,17 +2153,17 @@
       <c r="B27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>72</v>
+      <c r="C27" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -2156,13 +2173,13 @@
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -2170,19 +2187,19 @@
         <v>307.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
@@ -2190,13 +2207,13 @@
         <v>310.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -2205,23 +2222,27 @@
       <c r="A31" s="2">
         <v>312.0</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="D31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
         <v>314.0</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>74</v>
@@ -2231,12 +2252,12 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -2246,7 +2267,7 @@
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -2256,7 +2277,7 @@
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -2280,13 +2301,13 @@
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
@@ -2294,13 +2315,13 @@
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="F38" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -2308,7 +2329,7 @@
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
@@ -2318,7 +2339,7 @@
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -2353,14 +2374,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="19">
+      <c r="A1" s="22">
         <v>45253.0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -2386,8 +2407,8 @@
       <c r="A3" s="2">
         <v>6.0</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="2">
         <v>318.0</v>
       </c>
@@ -2402,10 +2423,10 @@
       <c r="A4" s="2">
         <v>103.0</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2">
@@ -2424,7 +2445,7 @@
         <v>322.0</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>9</v>
@@ -2435,19 +2456,19 @@
         <v>106.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="2">
         <v>323.0</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -2484,10 +2505,10 @@
         <v>325.0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -2495,7 +2516,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>21</v>
@@ -2503,11 +2524,11 @@
       <c r="D9" s="2">
         <v>326.0</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>124</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -2531,19 +2552,19 @@
         <v>114.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="D11" s="2">
         <v>404.0</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -2567,7 +2588,7 @@
         <v>118.0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>28</v>
@@ -2591,10 +2612,10 @@
       <c r="D14" s="2">
         <v>408.0</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="23" t="s">
+      <c r="E14" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2615,12 +2636,12 @@
         <v>6</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -2628,10 +2649,10 @@
         <v>411.0</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -2639,35 +2660,35 @@
         <v>210.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2">
         <v>412.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+        <v>45</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="2">
         <v>414.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -2675,19 +2696,19 @@
         <v>212.0</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2">
         <v>414.0</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="23" t="s">
+      <c r="E19" s="26" t="s">
         <v>54</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -2698,16 +2719,16 @@
         <v>56</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="2">
         <v>415.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -2715,19 +2736,19 @@
         <v>214.0</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" s="2">
         <v>415.0</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -2744,70 +2765,70 @@
         <v>415.0</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="D23" s="2">
         <v>416.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="2">
         <v>217.0</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>109</v>
+      <c r="C24" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="D24" s="2">
         <v>418.0</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2">
         <v>220.0</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="2">
         <v>420.0</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -2815,19 +2836,19 @@
         <v>303.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26" s="2">
         <v>422.0</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -2835,16 +2856,16 @@
         <v>305.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+        <v>66</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
@@ -2853,17 +2874,17 @@
       <c r="B28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="F28" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -2874,10 +2895,10 @@
         <v>8</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -2887,19 +2908,19 @@
         <v>310.0</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E30" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
@@ -2910,10 +2931,10 @@
         <v>25</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -2922,11 +2943,11 @@
       <c r="A32" s="2">
         <v>314.0</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="28" t="s">
         <v>115</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>116</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>74</v>
@@ -2935,17 +2956,17 @@
         <v>20</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
@@ -2955,9 +2976,9 @@
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="18"/>
+        <v>78</v>
+      </c>
+      <c r="E34" s="21"/>
       <c r="F34" s="10"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -2965,15 +2986,13 @@
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
       <c r="D36" s="2" t="s">
         <v>81</v>
       </c>
@@ -2989,13 +3008,13 @@
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
@@ -3003,13 +3022,13 @@
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="F38" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -3017,13 +3036,13 @@
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E39" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -3031,10 +3050,10 @@
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+        <v>89</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3066,14 +3085,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="27">
+      <c r="A1" s="30">
         <v>45253.0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -3108,19 +3127,13 @@
         <v>25</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="2">
         <v>103.0</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="D4" s="2">
         <v>320.0</v>
       </c>
@@ -3128,14 +3141,8 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="20">
+      <c r="A5" s="23">
         <v>104.0</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="D5" s="2">
         <v>322.0</v>
@@ -3151,8 +3158,12 @@
       <c r="A6" s="2">
         <v>106.0</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="D6" s="2">
         <v>322.0</v>
       </c>
@@ -3168,27 +3179,27 @@
         <v>109.0</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="D7" s="2">
         <v>323.0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="20">
+      <c r="A8" s="23">
         <v>110.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>18</v>
@@ -3197,10 +3208,10 @@
         <v>324.0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -3208,7 +3219,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>21</v>
@@ -3217,10 +3228,10 @@
         <v>325.0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -3233,27 +3244,27 @@
         <v>326.0</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="2">
         <v>114.0</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="D11" s="2">
         <v>401.0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>23</v>
@@ -3264,16 +3275,16 @@
         <v>24</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="D12" s="2">
         <v>401.0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>23</v>
@@ -3283,51 +3294,51 @@
       <c r="A13" s="2">
         <v>118.0</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>154</v>
+      <c r="B13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>404.0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="2">
-        <v>118.0</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>154</v>
+      <c r="A14" s="23">
+        <v>121.0</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>406.0</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="20">
-        <v>121.0</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>34</v>
+      <c r="A15" s="23">
+        <v>122.0</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
@@ -3336,67 +3347,67 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="20">
-        <v>122.0</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="2">
         <v>408.0</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="2">
+        <v>210.0</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D17" s="2">
         <v>410.0</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="2">
-        <v>210.0</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="2">
         <v>411.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="28"/>
+      <c r="A19" s="2">
+        <v>212.0</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="D19" s="2">
         <v>412.0</v>
       </c>
@@ -3404,63 +3415,67 @@
         <v>64</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="2">
-        <v>212.0</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>99</v>
+        <v>213.0</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="D20" s="2">
         <v>414.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="2">
-        <v>213.0</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>158</v>
+        <v>214.0</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="D21" s="2">
         <v>414.0</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="2">
         <v>214.0</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="D22" s="2">
         <v>415.0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -3471,36 +3486,36 @@
         <v>20</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D23" s="2">
         <v>415.0</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="D24" s="2">
         <v>416.0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -3508,19 +3523,19 @@
         <v>217.0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2">
         <v>418.0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -3528,19 +3543,19 @@
         <v>220.0</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="D26" s="2">
         <v>420.0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -3548,19 +3563,19 @@
         <v>303.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D27" s="2">
         <v>422.0</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -3568,13 +3583,13 @@
         <v>305.0</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -3587,10 +3602,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -3600,19 +3615,19 @@
         <v>307.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>114</v>
+        <v>70</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
@@ -3620,35 +3635,35 @@
         <v>310.0</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
+        <v>71</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
         <v>312.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
@@ -3656,24 +3671,24 @@
         <v>314.0</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>116</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
@@ -3688,13 +3703,13 @@
       <c r="B35" s="11"/>
       <c r="C35" s="14"/>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
@@ -3702,7 +3717,7 @@
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -3712,23 +3727,23 @@
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="18"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -3736,13 +3751,13 @@
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E39" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -3750,13 +3765,13 @@
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="F40" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -3764,24 +3779,27 @@
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
       <c r="D42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
+        <v>89</v>
+      </c>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+    </row>
+    <row r="43" ht="12.75" customHeight="1">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3817,10 +3835,10 @@
         <v>45253.0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -3830,13 +3848,13 @@
       <c r="A2" s="2">
         <v>5.0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="2">
         <v>316.0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -3859,10 +3877,10 @@
         <v>103.0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D4" s="2">
         <v>320.0</v>
@@ -3875,16 +3893,16 @@
         <v>104.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>9</v>
@@ -3894,16 +3912,14 @@
       <c r="A6" s="2">
         <v>106.0</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
       <c r="D6" s="2">
         <v>323.0</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -3920,10 +3936,10 @@
         <v>324.0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -3931,7 +3947,7 @@
         <v>110.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>18</v>
@@ -3940,10 +3956,10 @@
         <v>325.0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -3951,19 +3967,19 @@
         <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="D9" s="2">
         <v>326.0</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -3976,7 +3992,7 @@
         <v>401.0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>23</v>
@@ -3987,16 +4003,16 @@
         <v>114.0</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="D11" s="2">
         <v>401.0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>23</v>
@@ -4007,19 +4023,19 @@
         <v>24</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="D12" s="2">
         <v>404.0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -4027,10 +4043,10 @@
         <v>118.0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="2">
         <v>406.0</v>
@@ -4043,10 +4059,10 @@
         <v>121.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
@@ -4056,145 +4072,145 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="2">
-        <v>122.0</v>
+        <v>121.0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="D15" s="2">
         <v>408.0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="2">
+        <v>122.0</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D16" s="2">
         <v>410.0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="2">
-        <v>210.0</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="2">
         <v>411.0</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="2">
+        <v>210.0</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D18" s="2">
         <v>412.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="2">
-        <v>212.0</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="2">
         <v>414.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="2">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="D20" s="2">
         <v>415.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="2">
-        <v>214.0</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>104</v>
+        <v>213.0</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="D21" s="2">
         <v>415.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="2">
-        <v>216.0</v>
+        <v>214.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="D22" s="2">
         <v>416.0</v>
@@ -4203,106 +4219,110 @@
       <c r="F22" s="11"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="2">
+        <v>216.0</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="D23" s="2">
         <v>418.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="2">
-        <v>217.0</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>182</v>
-      </c>
+      <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="2">
-        <v>420.0</v>
+        <v>418.0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2">
-        <v>220.0</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>163</v>
+        <v>217.0</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="D25" s="2">
         <v>420.0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="2">
-        <v>303.0</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>165</v>
+        <v>220.0</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="D26" s="2">
-        <v>422.0</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>59</v>
+        <v>420.0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2">
-        <v>305.0</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="2" t="s">
+        <v>303.0</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="2">
+        <v>422.0</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
-        <v>306.0</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>130</v>
+        <v>305.0</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>66</v>
@@ -4312,10 +4332,10 @@
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2">
-        <v>307.0</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+        <v>306.0</v>
+      </c>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="2" t="s">
         <v>69</v>
       </c>
@@ -4324,14 +4344,10 @@
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
-        <v>310.0</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>125</v>
-      </c>
+        <v>307.0</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="2" t="s">
         <v>70</v>
       </c>
@@ -4340,112 +4356,114 @@
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2">
-        <v>312.0</v>
+        <v>310.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>133</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
+        <v>312.0</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="A33" s="2">
         <v>314.0</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B33" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="F33" s="8" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="12"/>
+      <c r="A34" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="12"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+        <v>78</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+        <v>79</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="18"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>137</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="10"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -4453,24 +4471,46 @@
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>172</v>
+        <v>87</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" ht="12.75" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" ht="12.75" customHeight="1">
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4525,7 +4565,7 @@
         <v>316.0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -4548,10 +4588,10 @@
         <v>103.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D4" s="2">
         <v>320.0</v>
@@ -4567,7 +4607,7 @@
         <v>190</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D5" s="2">
         <v>322.0</v>
@@ -4589,10 +4629,10 @@
         <v>323.0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -4609,10 +4649,10 @@
         <v>324.0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -4620,7 +4660,7 @@
         <v>110.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>18</v>
@@ -4629,10 +4669,10 @@
         <v>325.0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -4640,19 +4680,19 @@
         <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="D9" s="2">
         <v>326.0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -4665,7 +4705,7 @@
         <v>401.0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>23</v>
@@ -4676,16 +4716,16 @@
         <v>114.0</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="D11" s="2">
         <v>401.0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>23</v>
@@ -4695,16 +4735,14 @@
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
       <c r="D12" s="2">
         <v>404.0</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -4712,10 +4750,10 @@
         <v>118.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="2">
         <v>406.0</v>
@@ -4728,10 +4766,10 @@
         <v>121.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
@@ -4741,10 +4779,14 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="2">
-        <v>122.0</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+        <v>121.0</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="D15" s="2">
         <v>408.0</v>
       </c>
@@ -4752,31 +4794,27 @@
       <c r="F15" s="14"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="2">
+        <v>122.0</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="2">
         <v>410.0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="2">
-        <v>210.0</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="2">
         <v>411.0</v>
       </c>
@@ -4784,11 +4822,15 @@
       <c r="F17" s="10"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="2">
+        <v>210.0</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D18" s="2">
         <v>412.0</v>
       </c>
@@ -4796,51 +4838,47 @@
       <c r="F18" s="14"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="2">
-        <v>212.0</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>182</v>
-      </c>
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="2">
         <v>414.0</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="2">
-        <v>213.0</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+        <v>212.0</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="D20" s="2">
         <v>415.0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="2">
-        <v>214.0</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>213.0</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="2">
         <v>416.0</v>
       </c>
@@ -4849,13 +4887,13 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="2">
-        <v>216.0</v>
+        <v>214.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="D22" s="2">
         <v>418.0</v>
@@ -4868,27 +4906,31 @@
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="2">
+        <v>216.0</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="D23" s="2">
         <v>420.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="2">
-        <v>217.0</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="2">
         <v>422.0</v>
       </c>
@@ -4896,84 +4938,84 @@
         <v>183</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2">
-        <v>220.0</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>163</v>
-      </c>
+        <v>217.0</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="2">
-        <v>303.0</v>
+        <v>220.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2">
-        <v>305.0</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+        <v>303.0</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="D27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+        <v>70</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
-        <v>306.0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>192</v>
-      </c>
+        <v>305.0</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2">
-        <v>307.0</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+        <v>306.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="D29" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
-        <v>310.0</v>
+        <v>307.0</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -4985,48 +5027,50 @@
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2">
-        <v>312.0</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>171</v>
-      </c>
+        <v>310.0</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+        <v>77</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
-        <v>314.0</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+        <v>312.0</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="A33" s="2">
+        <v>314.0</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="A34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="2" t="s">
         <v>81</v>
       </c>
@@ -5035,24 +5079,24 @@
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="12"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="6"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="23" t="s">
-        <v>88</v>
+      <c r="D36" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>188</v>
@@ -5065,25 +5109,33 @@
       <c r="A37" s="6"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="23" t="s">
-        <v>88</v>
+      <c r="D37" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="23" t="s">
-        <v>90</v>
+      <c r="D38" s="26" t="s">
+        <v>89</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5132,13 +5184,13 @@
       <c r="A2" s="2">
         <v>5.0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="2">
         <v>316.0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>3</v>
@@ -5148,8 +5200,8 @@
       <c r="A3" s="2">
         <v>6.0</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="2">
         <v>318.0</v>
       </c>
@@ -5169,14 +5221,14 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="20">
+      <c r="A5" s="23">
         <v>104.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D5" s="2">
         <v>322.0</v>
@@ -5198,10 +5250,10 @@
         <v>323.0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -5218,10 +5270,10 @@
         <v>324.0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -5229,10 +5281,10 @@
         <v>110.0</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="D8" s="2">
         <v>325.0</v>
@@ -5249,7 +5301,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>18</v>
@@ -5258,10 +5310,10 @@
         <v>326.0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -5274,7 +5326,7 @@
         <v>401.0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>23</v>
@@ -5285,16 +5337,16 @@
         <v>114.0</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="8">
         <v>401.0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>23</v>
@@ -5304,8 +5356,12 @@
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="D12" s="8">
         <v>404.0</v>
       </c>
@@ -5337,8 +5393,8 @@
       <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="2">
@@ -5354,7 +5410,7 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -5372,7 +5428,7 @@
         <v>186</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2">
         <v>411.0</v>
@@ -5382,7 +5438,7 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -5406,7 +5462,7 @@
         <v>414.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>196</v>
@@ -5416,8 +5472,6 @@
       <c r="A20" s="2">
         <v>213.0</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
       <c r="D20" s="2">
         <v>415.0</v>
       </c>
@@ -5425,7 +5479,7 @@
         <v>185</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -5433,10 +5487,10 @@
         <v>214.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D21" s="2">
         <v>416.0</v>
@@ -5466,7 +5520,7 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -5474,7 +5528,7 @@
         <v>420.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>197</v>
@@ -5493,7 +5547,7 @@
         <v>183</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -5504,13 +5558,13 @@
         <v>188</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+        <v>66</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="2">
@@ -5520,13 +5574,13 @@
         <v>190</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+        <v>69</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2">
@@ -5535,23 +5589,23 @@
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
         <v>306.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>192</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -5563,10 +5617,10 @@
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
@@ -5585,40 +5639,44 @@
         <v>312.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+        <v>77</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
         <v>314.0</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+        <v>78</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+        <v>79</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="12"/>
@@ -5627,15 +5685,15 @@
       <c r="D34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="12"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -5645,7 +5703,7 @@
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -5655,7 +5713,7 @@
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -5665,7 +5723,7 @@
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
